--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_20pct/Rankings/estadisticos_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_20pct/Rankings/estadisticos_Lineal_No_Estacionario_ARIMA.xlsx
@@ -49,6 +49,9 @@
     <t>LSPM</t>
   </si>
   <si>
+    <t>LSPMW</t>
+  </si>
+  <si>
     <t>MCPS</t>
   </si>
   <si>
@@ -56,9 +59,6 @@
   </si>
   <si>
     <t>DeepAR</t>
-  </si>
-  <si>
-    <t>LSPMW</t>
   </si>
   <si>
     <t>EnCQR-LSTM</t>
@@ -465,28 +465,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>0.5453535474425103</v>
+        <v>0.5459255108496166</v>
       </c>
       <c r="C2">
-        <v>0.466842653088186</v>
+        <v>0.4774557401887269</v>
       </c>
       <c r="D2">
-        <v>0.2705136766956708</v>
+        <v>0.2726993568943849</v>
       </c>
       <c r="E2">
-        <v>0.4960335876868713</v>
+        <v>0.4995175192857109</v>
       </c>
       <c r="F2">
-        <v>0.2165161046389336</v>
+        <v>0.2090908209055525</v>
       </c>
       <c r="G2">
-        <v>1.187392630106634</v>
+        <v>1.386957043461417</v>
       </c>
       <c r="H2">
-        <v>0.3157047478067728</v>
+        <v>0.3301039081540708</v>
       </c>
       <c r="I2">
-        <v>0.715722719462309</v>
+        <v>0.7652551594257827</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -494,28 +494,28 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.9556980709736358</v>
+        <v>1.041989089094431</v>
       </c>
       <c r="C3">
-        <v>0.7232896630784346</v>
+        <v>0.7831957249586903</v>
       </c>
       <c r="D3">
-        <v>0.7691397181602857</v>
+        <v>0.8992528878158813</v>
       </c>
       <c r="E3">
-        <v>0.8047936283649813</v>
+        <v>0.8630156469271688</v>
       </c>
       <c r="F3">
-        <v>0.2248048233981637</v>
+        <v>0.2135789035305012</v>
       </c>
       <c r="G3">
-        <v>6.150116292088986</v>
+        <v>9.905025680815388</v>
       </c>
       <c r="H3">
-        <v>0.4531375027443996</v>
+        <v>0.4999618512264858</v>
       </c>
       <c r="I3">
-        <v>1.160008071841267</v>
+        <v>1.216105274520448</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -523,28 +523,28 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>2.449251213069206</v>
+        <v>1.045642245849395</v>
       </c>
       <c r="C4">
-        <v>1.340979983519565</v>
+        <v>0.7859238003259492</v>
       </c>
       <c r="D4">
-        <v>2.864196516079498</v>
+        <v>0.8995896138184747</v>
       </c>
       <c r="E4">
-        <v>1.16941720832724</v>
+        <v>0.8603225600240746</v>
       </c>
       <c r="F4">
-        <v>0.2499337176369182</v>
+        <v>0.2146190003737683</v>
       </c>
       <c r="G4">
-        <v>18.09839073039754</v>
+        <v>9.803368622477741</v>
       </c>
       <c r="H4">
-        <v>0.6684070804914954</v>
+        <v>0.4989056620025385</v>
       </c>
       <c r="I4">
-        <v>2.860600102738613</v>
+        <v>1.22653090636475</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -552,28 +552,28 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>2.579992484281206</v>
+        <v>2.60546433418054</v>
       </c>
       <c r="C5">
-        <v>1.262056874496478</v>
+        <v>1.180841643249512</v>
       </c>
       <c r="D5">
-        <v>3.113388930218069</v>
+        <v>3.710135734500783</v>
       </c>
       <c r="E5">
-        <v>1.206743410760543</v>
+        <v>1.423982545386744</v>
       </c>
       <c r="F5">
-        <v>0.2354056458042394</v>
+        <v>0.2302918878681234</v>
       </c>
       <c r="G5">
-        <v>20.09851378673979</v>
+        <v>35.39654378425496</v>
       </c>
       <c r="H5">
-        <v>0.6436416359709199</v>
+        <v>0.6508022858324735</v>
       </c>
       <c r="I5">
-        <v>3.178013061726166</v>
+        <v>2.901421904591248</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -581,28 +581,28 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>2.698185999935002</v>
+        <v>2.722177374476466</v>
       </c>
       <c r="C6">
-        <v>0.9347907577675505</v>
+        <v>1.262771133876766</v>
       </c>
       <c r="D6">
-        <v>5.770077572846303</v>
+        <v>4.103658044034247</v>
       </c>
       <c r="E6">
-        <v>2.138502524653712</v>
+        <v>1.507491055693412</v>
       </c>
       <c r="F6">
-        <v>0.2215262955344381</v>
+        <v>0.2256385646272633</v>
       </c>
       <c r="G6">
-        <v>38.06700378984844</v>
+        <v>40.7241890456435</v>
       </c>
       <c r="H6">
-        <v>0.5534614536791601</v>
+        <v>0.6466882115384491</v>
       </c>
       <c r="I6">
-        <v>2.039750983567411</v>
+        <v>2.895399594788267</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -610,28 +610,28 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>2.698648693965452</v>
+        <v>3.28754610545829</v>
       </c>
       <c r="C7">
-        <v>1.568796669353615</v>
+        <v>0.7238048271650972</v>
       </c>
       <c r="D7">
-        <v>2.98364856166378</v>
+        <v>8.322522166414963</v>
       </c>
       <c r="E7">
-        <v>1.105608361820354</v>
+        <v>2.531530174617822</v>
       </c>
       <c r="F7">
-        <v>0.2334635542738512</v>
+        <v>0.2254172464193384</v>
       </c>
       <c r="G7">
-        <v>19.3623946237339</v>
+        <v>71.49265836244341</v>
       </c>
       <c r="H7">
-        <v>0.7483232617534542</v>
+        <v>0.4518644875175557</v>
       </c>
       <c r="I7">
-        <v>3.50177986125186</v>
+        <v>1.413588850561394</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -639,28 +639,28 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>4.570246739591618</v>
+        <v>4.336191070405466</v>
       </c>
       <c r="C8">
-        <v>3.875104424489827</v>
+        <v>2.423186475648339</v>
       </c>
       <c r="D8">
-        <v>3.005809919068311</v>
+        <v>5.005247591926992</v>
       </c>
       <c r="E8">
-        <v>0.6576909498188057</v>
+        <v>1.15429590409146</v>
       </c>
       <c r="F8">
-        <v>0.7036266075035346</v>
+        <v>0.2800019209118814</v>
       </c>
       <c r="G8">
-        <v>15.20667212570506</v>
+        <v>33.69577909168969</v>
       </c>
       <c r="H8">
-        <v>2.440516351504126</v>
+        <v>1.388911528819285</v>
       </c>
       <c r="I8">
-        <v>5.815888251094337</v>
+        <v>5.067622906559878</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -668,28 +668,28 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>7.29228677193038</v>
+        <v>9.920546923731811</v>
       </c>
       <c r="C9">
-        <v>4.850755995434918</v>
+        <v>4.328561766171958</v>
       </c>
       <c r="D9">
-        <v>7.825738676854275</v>
+        <v>16.11506249401501</v>
       </c>
       <c r="E9">
-        <v>1.073152897247167</v>
+        <v>1.624412708080111</v>
       </c>
       <c r="F9">
-        <v>0.5832098596774059</v>
+        <v>0.2845493415607812</v>
       </c>
       <c r="G9">
-        <v>50.13158264625985</v>
+        <v>135.9442513659722</v>
       </c>
       <c r="H9">
-        <v>2.727268196418891</v>
+        <v>1.928101765356613</v>
       </c>
       <c r="I9">
-        <v>8.24279197594189</v>
+        <v>11.03196077708084</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -697,28 +697,28 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>7.880117721526667</v>
+        <v>11.05957333201351</v>
       </c>
       <c r="C10">
-        <v>5.419740817252369</v>
+        <v>5.280033560448455</v>
       </c>
       <c r="D10">
-        <v>8.002535229721007</v>
+        <v>16.90672889948387</v>
       </c>
       <c r="E10">
-        <v>1.015534984694445</v>
+        <v>1.528696306081261</v>
       </c>
       <c r="F10">
-        <v>0.6699910195665</v>
+        <v>0.4674116797725129</v>
       </c>
       <c r="G10">
-        <v>50.77487921368575</v>
+        <v>145.3033958673079</v>
       </c>
       <c r="H10">
-        <v>3.281784644287372</v>
+        <v>2.532388183668</v>
       </c>
       <c r="I10">
-        <v>8.492217409783262</v>
+        <v>12.21833994831928</v>
       </c>
     </row>
   </sheetData>
